--- a/medicine/Enfance/Le_Journal_d'une_grosse_nouille/Le_Journal_d'une_grosse_nouille.xlsx
+++ b/medicine/Enfance/Le_Journal_d'une_grosse_nouille/Le_Journal_d'une_grosse_nouille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Journal_d%27une_grosse_nouille</t>
+          <t>Le_Journal_d'une_grosse_nouille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal d'une grosse nouille (en anglais Dork Diaries) est une série de romans pour la jeunesse écrite et illustrée par Rachel Renee Russel depuis 2009. Elle narre l'histoire d'une adolescente américaine, Nikki Maxwell, sous la forme de journaux intimes écrits par Nikki elle-même.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Journal_d%27une_grosse_nouille</t>
+          <t>Le_Journal_d'une_grosse_nouille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikki Maxwell est une ado américaine qui vient d'être inscrite dans un collège privé, la Westchester Country Day, grâce à une bourse scolaire. Malheureusement pour Nikki, cette bourse a été obtenue grâce à un contrat de désinsectisation du lycée que son père (exterminateur et fier de l'être) a décroché. Ce secret va être découvert par sa nouvelle pire ennemie, Mackenzie, la reine de l'école, qui est bien décidée à lui pourrir la vie. Malgré cela, elle se fait deux meilleures amies en devenant assistante à la bibliothèque scolaire, Chloë et Zoey. Nikki est aussi follement amoureuse de Brandon Roberts mais Mackenzie convoite également ce dernier. Mais c'est Nikki que Brandon aime. Brandon est un élève engagé pour faire des photos qui illustreront le journal du collège. Il a une enfance difficile et vit chez ses grands parents.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Journal_d%27une_grosse_nouille</t>
+          <t>Le_Journal_d'une_grosse_nouille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikki J. Maxwell : Héroïne des romans, elle est sympathique c'est une très bonne dessinatrice. Elle est amoureuse du beau Brandon depuis qu'elle est arrivée à la Westchester Country, où elle y a également trouvé une ennemie, Mackenzie Hollister. Ses deux meilleures amies sont Chloë Garcia et Zoey Franklin. Elle se sont rencontrés sur un malentendu mais elles ne regrettent absolument pas. Nikki aime également chanter c'est pourquoi elle a créé le groupe « Je sais pas trop encore » dans le Tome 3. Son père est un exterminateur d'insecte, c'est grâce à lui qu'elle a obtenu une bourse pour la Westchester Country. Passionnée de dessin et d'écriture, nous suivons sa passionnante vie à travers ses journaux. 
 Chloë Christina Garcia : Meilleure amie de Nikki Maxwell et de Zoey Franklin, ses parents dirigent une entreprise de logiciels informatiques. Un peu fofolle et puérile, elle est adorable et attachante. Elle fait partie du groupe "Je sais pas trop encore" en tant que chanteuse. Comme Nikki, elle n'aime pas Mackenzie et elle est amoureuse de Jason...
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Journal_d%27une_grosse_nouille</t>
+          <t>Le_Journal_d'une_grosse_nouille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tome 1 : Une rentrée gratinée, Milan, 2012, 315 p.  (ISBN 978-2-7459-5721-4).
 Tome 2 : Une fête bien râpée, Milan, 2013, 285 p.  (ISBN 978-2-7459-5722-1).
